--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45235FB9-8AEE-4ED8-9047-F5D07050062B}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CA1F8D-ABF5-409E-8739-3C2F9D4BC97D}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,39 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>Onde utilizar?</t>
+  </si>
   <si>
     <t xml:space="preserve">Código </t>
   </si>
   <si>
-    <t>Onde utilizar?</t>
-  </si>
-  <si>
     <t>Fundo do site</t>
-  </si>
-  <si>
-    <t>Fundo do header</t>
-  </si>
-  <si>
-    <t>Sombras</t>
-  </si>
-  <si>
-    <t>Fundo dos botões</t>
-  </si>
-  <si>
-    <t>#e0fde6</t>
-  </si>
-  <si>
-    <t>Título do blog</t>
-  </si>
-  <si>
-    <t>#78ef46</t>
-  </si>
-  <si>
-    <t>#e4ffde</t>
-  </si>
-  <si>
-    <t>rgba(0, 0, 0, 0.05)</t>
   </si>
   <si>
     <r>
@@ -76,7 +52,6 @@
         <sz val="8"/>
         <color rgb="FFFE4450"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>rgb</t>
     </r>
@@ -85,7 +60,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
@@ -94,7 +68,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -103,7 +76,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -112,7 +84,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -121,7 +92,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -130,7 +100,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -139,10 +108,33 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Fundo do header</t>
+  </si>
+  <si>
+    <t>#e4ffde</t>
+  </si>
+  <si>
+    <t>Sombras</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0.05)</t>
+  </si>
+  <si>
+    <t>Fundo dos botões</t>
+  </si>
+  <si>
+    <t>#e0fde6</t>
+  </si>
+  <si>
+    <t>Título do blog</t>
+  </si>
+  <si>
+    <t>#78ef46</t>
   </si>
   <si>
     <t>Fundo de destaque</t>
@@ -179,12 +171,78 @@
   <si>
     <t>#FFFFFF</t>
   </si>
+  <si>
+    <t>Fundo do botão</t>
+  </si>
+  <si>
+    <t>#61da43</t>
+  </si>
+  <si>
+    <t>Botão do cabeçalho</t>
+  </si>
+  <si>
+    <t>Hover do botão cab.</t>
+  </si>
+  <si>
+    <t>#218838</t>
+  </si>
+  <si>
+    <t>Fundo do formulário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rgb(243, 255, 245)</t>
+  </si>
+  <si>
+    <t>Botão enviar form.</t>
+  </si>
+  <si>
+    <t>rgb(102, 236, 131)</t>
+  </si>
+  <si>
+    <t>Hover de enviar form.</t>
+  </si>
+  <si>
+    <t>rgb(57, 163, 80)</t>
+  </si>
+  <si>
+    <t>Botão limpar form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rgb(167, 167, 167</t>
+  </si>
+  <si>
+    <t>Hover de limpar form.</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>rgb(153, 248, 191)</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>rgb(0, 0, 0)</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>Letra do paragráfo</t>
+  </si>
+  <si>
+    <t>#00cc03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,15 +258,24 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFE4450"/>
+      <color rgb="FFF97E72"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFE4450"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFF97E72"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,21 +298,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFF97E72"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="2" xr9:uid="{C1A792E5-F407-45A2-9875-0C02625C23AD}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFF97E72"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,8 +389,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C20" totalsRowShown="0">
+  <autoFilter ref="B2:C20" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C0187951-A4C8-460D-9CED-E87F817BAA3C}" name="Onde utilizar?"/>
+    <tableColumn id="2" xr3:uid="{ACE66DB4-56ED-40CE-982F-3AB7350B82D2}" name="Código " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,100 +717,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:3" ht="15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="15">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="15">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CA1F8D-ABF5-409E-8739-3C2F9D4BC97D}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFAD659-D85D-413A-B300-EB50854E9BC9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">Código </t>
+  </si>
   <si>
     <t>Onde utilizar?</t>
   </si>
   <si>
-    <t xml:space="preserve">Código </t>
-  </si>
-  <si>
     <t>Fundo do site</t>
+  </si>
+  <si>
+    <t>Fundo do header</t>
+  </si>
+  <si>
+    <t>Sombras</t>
+  </si>
+  <si>
+    <t>Fundo dos botões</t>
+  </si>
+  <si>
+    <t>#e0fde6</t>
+  </si>
+  <si>
+    <t>Título do blog</t>
+  </si>
+  <si>
+    <t>#78ef46</t>
+  </si>
+  <si>
+    <t>#e4ffde</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0.05)</t>
   </si>
   <si>
     <r>
@@ -52,6 +76,7 @@
         <sz val="8"/>
         <color rgb="FFFE4450"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>rgb</t>
     </r>
@@ -60,6 +85,7 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
@@ -68,6 +94,7 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -76,6 +103,7 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -84,6 +112,7 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -92,6 +121,7 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -100,6 +130,7 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -108,33 +139,10 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Fundo do header</t>
-  </si>
-  <si>
-    <t>#e4ffde</t>
-  </si>
-  <si>
-    <t>Sombras</t>
-  </si>
-  <si>
-    <t>rgba(0, 0, 0, 0.05)</t>
-  </si>
-  <si>
-    <t>Fundo dos botões</t>
-  </si>
-  <si>
-    <t>#e0fde6</t>
-  </si>
-  <si>
-    <t>Título do blog</t>
-  </si>
-  <si>
-    <t>#78ef46</t>
   </si>
   <si>
     <t>Fundo de destaque</t>
@@ -172,33 +180,33 @@
     <t>#FFFFFF</t>
   </si>
   <si>
+    <t>#61da43</t>
+  </si>
+  <si>
     <t>Fundo do botão</t>
   </si>
   <si>
-    <t>#61da43</t>
-  </si>
-  <si>
     <t>Botão do cabeçalho</t>
   </si>
   <si>
+    <t>#218838</t>
+  </si>
+  <si>
+    <t>Fundo do formulário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rgb(243, 255, 245)</t>
+  </si>
+  <si>
+    <t>Botão enviar form.</t>
+  </si>
+  <si>
+    <t>rgb(102, 236, 131)</t>
+  </si>
+  <si>
     <t>Hover do botão cab.</t>
   </si>
   <si>
-    <t>#218838</t>
-  </si>
-  <si>
-    <t>Fundo do formulário</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rgb(243, 255, 245)</t>
-  </si>
-  <si>
-    <t>Botão enviar form.</t>
-  </si>
-  <si>
-    <t>rgb(102, 236, 131)</t>
-  </si>
-  <si>
     <t>Hover de enviar form.</t>
   </si>
   <si>
@@ -236,13 +244,19 @@
   </si>
   <si>
     <t>#00cc03</t>
+  </si>
+  <si>
+    <t>Cor da caixa</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,24 +272,15 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFF97E72"/>
+      <color rgb="FFFE4450"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFE4450"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFBBBBBB"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FFF97E72"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,18 +303,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,11 +375,6 @@
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="FFF97E72"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,6 +384,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,193 +718,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15">
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15">
-      <c r="B5" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15">
-      <c r="B6" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15">
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15">
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFAD659-D85D-413A-B300-EB50854E9BC9}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B01A3E-D11A-47D8-B1FA-3E18F128E507}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,39 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+  <si>
+    <t>Onde utilizar?</t>
+  </si>
   <si>
     <t xml:space="preserve">Código </t>
   </si>
   <si>
-    <t>Onde utilizar?</t>
-  </si>
-  <si>
     <t>Fundo do site</t>
-  </si>
-  <si>
-    <t>Fundo do header</t>
-  </si>
-  <si>
-    <t>Sombras</t>
-  </si>
-  <si>
-    <t>Fundo dos botões</t>
-  </si>
-  <si>
-    <t>#e0fde6</t>
-  </si>
-  <si>
-    <t>Título do blog</t>
-  </si>
-  <si>
-    <t>#78ef46</t>
-  </si>
-  <si>
-    <t>#e4ffde</t>
-  </si>
-  <si>
-    <t>rgba(0, 0, 0, 0.05)</t>
   </si>
   <si>
     <r>
@@ -76,7 +52,6 @@
         <sz val="8"/>
         <color rgb="FFFE4450"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>rgb</t>
     </r>
@@ -85,7 +60,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
@@ -94,7 +68,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -103,7 +76,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -112,7 +84,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -121,7 +92,6 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -130,7 +100,6 @@
         <sz val="8"/>
         <color rgb="FFF97E72"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>252</t>
     </r>
@@ -139,13 +108,36 @@
         <sz val="8"/>
         <color rgb="FFBBBBBB"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Fundo de destaque</t>
+    <t>Fundo do header</t>
+  </si>
+  <si>
+    <t>#e4ffde</t>
+  </si>
+  <si>
+    <t>Sombras</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0.05)</t>
+  </si>
+  <si>
+    <t>Fundo dos botões</t>
+  </si>
+  <si>
+    <t>#e0fde6</t>
+  </si>
+  <si>
+    <t>Título do blog</t>
+  </si>
+  <si>
+    <t>#78ef46</t>
+  </si>
+  <si>
+    <t>Fundo de destaque / formulário</t>
   </si>
   <si>
     <r>
@@ -180,33 +172,27 @@
     <t>#FFFFFF</t>
   </si>
   <si>
+    <t>Fundo do botão</t>
+  </si>
+  <si>
     <t>#61da43</t>
   </si>
   <si>
-    <t>Fundo do botão</t>
-  </si>
-  <si>
     <t>Botão do cabeçalho</t>
   </si>
   <si>
+    <t>Hover do botão cab.</t>
+  </si>
+  <si>
     <t>#218838</t>
   </si>
   <si>
-    <t>Fundo do formulário</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rgb(243, 255, 245)</t>
-  </si>
-  <si>
     <t>Botão enviar form.</t>
   </si>
   <si>
     <t>rgb(102, 236, 131)</t>
   </si>
   <si>
-    <t>Hover do botão cab.</t>
-  </si>
-  <si>
     <t>Hover de enviar form.</t>
   </si>
   <si>
@@ -231,15 +217,12 @@
     <t>rgb(153, 248, 191)</t>
   </si>
   <si>
-    <t>h2</t>
+    <t>h2, h2</t>
   </si>
   <si>
     <t>rgb(0, 0, 0)</t>
   </si>
   <si>
-    <t>h3</t>
-  </si>
-  <si>
     <t>Letra do paragráfo</t>
   </si>
   <si>
@@ -250,13 +233,49 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>Cor da legenda</t>
+  </si>
+  <si>
+    <t>#555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão de contato </t>
+  </si>
+  <si>
+    <t>Hover do botão de ctt.</t>
+  </si>
+  <si>
+    <t>#219a14</t>
+  </si>
+  <si>
+    <t>Cor do fundo do ícone</t>
+  </si>
+  <si>
+    <t>Ícone</t>
+  </si>
+  <si>
+    <t>N° de estatística</t>
+  </si>
+  <si>
+    <t>Frase abaixo dos N°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundo cards dores </t>
+  </si>
+  <si>
+    <t>#f8fcf9</t>
+  </si>
+  <si>
+    <t>h2 dos cards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +291,24 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFE4450"/>
+      <color rgb="FFF97E72"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFE4450"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFF97E72"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,15 +331,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +407,11 @@
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFF97E72"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,13 +423,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C20" totalsRowShown="0">
-  <autoFilter ref="B2:C20" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C31" totalsRowShown="0">
+  <autoFilter ref="B2:C31" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0187951-A4C8-460D-9CED-E87F817BAA3C}" name="Onde utilizar?"/>
     <tableColumn id="2" xr3:uid="{ACE66DB4-56ED-40CE-982F-3AB7350B82D2}" name="Código " dataDxfId="0"/>
@@ -718,201 +751,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:3" ht="15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="15">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="15">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="15">
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:3" ht="15">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="15">
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:3" ht="15">
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="15">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="15">
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="15">
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="15">
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="15">
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15">
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15">
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="30" spans="2:3" ht="15">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B01A3E-D11A-47D8-B1FA-3E18F128E507}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E87BE55-4B54-4566-963A-08C6D385D61A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Onde utilizar?</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>h2 dos cards</t>
+  </si>
+  <si>
+    <t>Subtítulo dos cards</t>
+  </si>
+  <si>
+    <t>#666</t>
+  </si>
+  <si>
+    <t>Itens do card</t>
+  </si>
+  <si>
+    <t>Es</t>
   </si>
 </sst>
 </file>
@@ -424,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C31" totalsRowShown="0">
-  <autoFilter ref="B2:C31" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C35" totalsRowShown="0">
+  <autoFilter ref="B2:C35" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0187951-A4C8-460D-9CED-E87F817BAA3C}" name="Onde utilizar?"/>
     <tableColumn id="2" xr3:uid="{ACE66DB4-56ED-40CE-982F-3AB7350B82D2}" name="Código " dataDxfId="0"/>
@@ -751,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1004,6 +1016,36 @@
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="2:3" ht="15">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E87BE55-4B54-4566-963A-08C6D385D61A}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BA09C0-F31C-425D-82C7-071EA0A41615}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Onde utilizar?</t>
   </si>
@@ -217,7 +217,7 @@
     <t>rgb(153, 248, 191)</t>
   </si>
   <si>
-    <t>h2, h2</t>
+    <t>h2, h3</t>
   </si>
   <si>
     <t>rgb(0, 0, 0)</t>
@@ -268,7 +268,7 @@
     <t>#f8fcf9</t>
   </si>
   <si>
-    <t>h2 dos cards</t>
+    <t>h2 dos cards, texto final</t>
   </si>
   <si>
     <t>Subtítulo dos cards</t>
@@ -280,7 +280,7 @@
     <t>Itens do card</t>
   </si>
   <si>
-    <t>Es</t>
+    <t>h2 do blog</t>
   </si>
 </sst>
 </file>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
   <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1044,7 +1044,9 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Paleta de Cores e Tipografia.xlsx
+++ b/Paleta de Cores e Tipografia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesisenaispedu-my.sharepoint.com/personal/emilly_nascimento_portalsesisp_org_br/Documents/SENAI - 2025 - DS/LIMA/Atividade - Startup de finanças/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BA09C0-F31C-425D-82C7-071EA0A41615}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{9DD9200A-66C4-4667-B6CE-92B43C7D81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4508993-039E-4A47-BCF3-9188674FEA2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469993F3-5E49-4EE9-B447-E4441C5BDD9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Onde utilizar?</t>
   </si>
@@ -47,72 +47,6 @@
     <t>Fundo do site</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFE4450"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>rgb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFF97E72"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>252</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFF97E72"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>252</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFF97E72"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>252</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Fundo do header</t>
   </si>
   <si>
@@ -140,20 +74,6 @@
     <t>Fundo de destaque / formulário</t>
   </si>
   <si>
-    <r>
-      <t>#f8fcf9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFBBBBBB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>Letra do cabeçalho</t>
   </si>
   <si>
@@ -281,13 +201,58 @@
   </si>
   <si>
     <t>h2 do blog</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Tipografia</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>Geral</t>
+  </si>
+  <si>
+    <t>Planejamento e animações CSS</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Efeito</t>
+  </si>
+  <si>
+    <t>Botões</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Formulário</t>
+  </si>
+  <si>
+    <t>Hover</t>
+  </si>
+  <si>
+    <t>Hover botões</t>
+  </si>
+  <si>
+    <t>rgb(252, 252, 252)</t>
+  </si>
+  <si>
+    <t>font-family: 'Open Sans', 'Helvetica Neue', sans-serif</t>
+  </si>
+  <si>
+    <t>#f8fcf9;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,31 +261,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFBBBBBB"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFF97E72"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFE4450"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFBBBBBB"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFF97E72"/>
-      <name val="Consolas"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,24 +291,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -373,9 +406,67 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFF97E72"/>
-        <name val="Consolas"/>
-        <family val="3"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -415,8 +506,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="2" xr9:uid="{C1A792E5-F407-45A2-9875-0C02625C23AD}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -435,12 +526,38 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C35" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}" name="Tabela1" displayName="Tabela1" ref="B2:C35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B2:C35" xr:uid="{8024A40C-6C72-4B56-8796-039309DE93BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C0187951-A4C8-460D-9CED-E87F817BAA3C}" name="Onde utilizar?"/>
-    <tableColumn id="2" xr3:uid="{ACE66DB4-56ED-40CE-982F-3AB7350B82D2}" name="Código " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C0187951-A4C8-460D-9CED-E87F817BAA3C}" name="Onde utilizar?" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{ACE66DB4-56ED-40CE-982F-3AB7350B82D2}" name="Código " dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1F81F1E-4968-40CE-8826-C92DFFA9E5C2}" name="Tabela2" displayName="Tabela2" ref="E2:F3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="E2:F3" xr:uid="{F1F81F1E-4968-40CE-8826-C92DFFA9E5C2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6E3C481A-0A64-46CA-8071-C18CD91DAAF5}" name="Fonte" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{720CACFB-4A45-4E5F-88BF-CAF00864D1BC}" name="Onde utilizar?" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67DFABE5-1F1E-4890-8315-6D494CC1F861}" name="Tabela3" displayName="Tabela3" ref="E6:F9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="E6:F9" xr:uid="{67DFABE5-1F1E-4890-8315-6D494CC1F861}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BD56006B-7E00-4332-9BA0-BD5DD5F555F2}" name="Elemento" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3250B232-390F-47FE-BC58-A58C0FB69CB3}" name="Efeito" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -763,295 +880,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D3F93-F33A-4F07-AAFC-F090ED020D6A}">
-  <dimension ref="B2:C35"/>
+  <dimension ref="B1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="15">
-      <c r="B3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15">
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15">
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15">
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15">
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15">
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15">
-      <c r="B9" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15">
-      <c r="B10" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15">
-      <c r="B11" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15">
-      <c r="B12" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15">
-      <c r="B13" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15">
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15">
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="15">
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15">
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15">
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>